--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_489__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_489__Reeval_Halton_Modell_1.1.xlsx
@@ -5990,10 +5990,10 @@
                   <c:v>48.68511962890625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.50480651855469</c:v>
+                  <c:v>45.50481033325195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.184203624725342</c:v>
+                  <c:v>5.184201240539551</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>46.64741897583008</c:v>
@@ -6005,25 +6005,25 @@
                   <c:v>34.30358123779297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.59180474281311</c:v>
+                  <c:v>3.59180212020874</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.572126984596252</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.535109519958496</c:v>
+                  <c:v>4.535106658935547</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.883114814758301</c:v>
+                  <c:v>3.883119821548462</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.19279098510742</c:v>
+                  <c:v>42.19278335571289</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.04394626617432</c:v>
+                  <c:v>11.04394340515137</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.583261013031006</c:v>
+                  <c:v>4.583258628845215</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>56.66043090820312</c:v>
@@ -6035,10 +6035,10 @@
                   <c:v>2.048475980758667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.172597885131836</c:v>
+                  <c:v>2.172600507736206</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41.67694854736328</c:v>
+                  <c:v>41.67695236206055</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.572126984596252</c:v>
@@ -6050,7 +6050,7 @@
                   <c:v>47.00698089599609</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.825228452682495</c:v>
+                  <c:v>2.825233459472656</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>53.49941253662109</c:v>
@@ -6059,13 +6059,13 @@
                   <c:v>3.051540613174438</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.714077711105347</c:v>
+                  <c:v>2.714075088500977</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.068973541259766</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.31964492797852</c:v>
+                  <c:v>35.31964874267578</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>30.77538681030273</c:v>
@@ -6074,13 +6074,13 @@
                   <c:v>1.572126984596252</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.16616153717041</c:v>
+                  <c:v>11.16615962982178</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.71298599243164</c:v>
+                  <c:v>11.71298408508301</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41.15172576904297</c:v>
+                  <c:v>41.1517219543457</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.572126984596252</c:v>
@@ -6098,7 +6098,7 @@
                   <c:v>1.291509032249451</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.363574743270874</c:v>
+                  <c:v>2.363572120666504</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1.572126984596252</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>45.05391693115234</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.075010061264038</c:v>
+                  <c:v>2.07501482963562</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1.66076385974884</c:v>
@@ -6119,16 +6119,16 @@
                   <c:v>4.991780757904053</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.113333702087402</c:v>
+                  <c:v>6.113338947296143</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42.93289947509766</c:v>
+                  <c:v>42.93290328979492</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>7.247743129730225</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.644855737686157</c:v>
+                  <c:v>-1.644858121871948</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>24.1382999420166</c:v>
@@ -6149,16 +6149,16 @@
                   <c:v>1.572126984596252</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>53.7975959777832</c:v>
+                  <c:v>53.79760360717773</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.254226207733154</c:v>
+                  <c:v>3.254228591918945</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>40.72687149047852</c:v>
+                  <c:v>40.72686767578125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.836325645446777</c:v>
+                  <c:v>5.836323261260986</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1.572126984596252</c:v>
@@ -6176,7 +6176,7 @@
                   <c:v>1.572126984596252</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>41.97587966918945</c:v>
+                  <c:v>41.97587203979492</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>41.87448120117188</c:v>
@@ -6191,25 +6191,25 @@
                   <c:v>12.7031774520874</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>44.65161895751953</c:v>
+                  <c:v>44.651611328125</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45.4334716796875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.941254138946533</c:v>
+                  <c:v>7.941251277923584</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43.3370361328125</c:v>
+                  <c:v>43.33703994750977</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>54.77254104614258</c:v>
+                  <c:v>54.77253341674805</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>56.19245910644531</c:v>
+                  <c:v>56.19244766235352</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>45.96754455566406</c:v>
+                  <c:v>45.9675407409668</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>3.161917924880981</c:v>
@@ -6218,10 +6218,10 @@
                   <c:v>6.448385238647461</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.933985233306885</c:v>
+                  <c:v>3.933977842330933</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.54471588134766</c:v>
+                  <c:v>13.54471111297607</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45.06578063964844</c:v>
@@ -6251,16 +6251,16 @@
                   <c:v>43.03330993652344</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>29.01498603820801</c:v>
+                  <c:v>29.01498794555664</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1.735358953475952</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>27.33308029174805</c:v>
+                  <c:v>27.33308410644531</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.050762176513672</c:v>
+                  <c:v>6.050766944885254</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>52.32697296142578</c:v>
@@ -6278,7 +6278,7 @@
                   <c:v>39.05034637451172</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>46.17959594726562</c:v>
+                  <c:v>46.17958450317383</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>30.46827125549316</c:v>
@@ -7011,7 +7011,7 @@
         <v>29.3754</v>
       </c>
       <c r="F3">
-        <v>45.50480651855469</v>
+        <v>45.50481033325195</v>
       </c>
       <c r="G3">
         <v>83</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.184203624725342</v>
+        <v>5.184201240539551</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.59180474281311</v>
+        <v>3.59180212020874</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.535109519958496</v>
+        <v>4.535106658935547</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.883114814758301</v>
+        <v>3.883119821548462</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>42.19279098510742</v>
+        <v>42.19278335571289</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.04394626617432</v>
+        <v>11.04394340515137</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.583261013031006</v>
+        <v>4.583258628845215</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.172597885131836</v>
+        <v>2.172600507736206</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>41.67694854736328</v>
+        <v>41.67695236206055</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.825228452682495</v>
+        <v>2.825233459472656</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.714077711105347</v>
+        <v>2.714075088500977</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>35.31964492797852</v>
+        <v>35.31964874267578</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>11.16616153717041</v>
+        <v>11.16615962982178</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>11.71298599243164</v>
+        <v>11.71298408508301</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>41.15172576904297</v>
+        <v>41.1517219543457</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2.363574743270874</v>
+        <v>2.363572120666504</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>2.075010061264038</v>
+        <v>2.07501482963562</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>6.113333702087402</v>
+        <v>6.113338947296143</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>42.93289947509766</v>
+        <v>42.93290328979492</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-1.644855737686157</v>
+        <v>-1.644858121871948</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>48.3275</v>
       </c>
       <c r="F56">
-        <v>53.7975959777832</v>
+        <v>53.79760360717773</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>3.254226207733154</v>
+        <v>3.254228591918945</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>43.4308</v>
       </c>
       <c r="F58">
-        <v>40.72687149047852</v>
+        <v>40.72686767578125</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>5.836325645446777</v>
+        <v>5.836323261260986</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>41.97587966918945</v>
+        <v>41.97587203979492</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>44.65161895751953</v>
+        <v>44.651611328125</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>7.941254138946533</v>
+        <v>7.941251277923584</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>43.3370361328125</v>
+        <v>43.33703994750977</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>54.77254104614258</v>
+        <v>54.77253341674805</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>56.19245910644531</v>
+        <v>56.19244766235352</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>45.96754455566406</v>
+        <v>45.9675407409668</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>46.1463</v>
       </c>
       <c r="F79">
-        <v>3.933985233306885</v>
+        <v>3.933977842330933</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>13.54471588134766</v>
+        <v>13.54471111297607</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>29.01498603820801</v>
+        <v>29.01498794555664</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>27.33308029174805</v>
+        <v>27.33308410644531</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>6.050762176513672</v>
+        <v>6.050766944885254</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>45.4271</v>
       </c>
       <c r="F99">
-        <v>46.17959594726562</v>
+        <v>46.17958450317383</v>
       </c>
     </row>
     <row r="100" spans="1:6">
